--- a/AAII_Financials/Quarterly/ITRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITRK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>ITRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,20 +814,23 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,20 +861,23 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,22 +986,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -993,11 +1012,11 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1094,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1117,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1138,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1161,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,8 +1303,11 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1332,11 +1374,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1355,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1464,11 +1515,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1487,8 +1538,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1508,11 +1562,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1531,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1751,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1772,11 +1844,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1795,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1860,11 +1938,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1883,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1995,11 +2081,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2083,11 +2175,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2171,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2188,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2206,23 +2307,23 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2232,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2305,8 +2412,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2558,23 +2683,23 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2762,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2647,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2659,13 +2789,16 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2688,11 +2821,11 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -2708,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2726,23 +2862,23 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -2752,16 +2888,19 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2770,22 +2909,22 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -2794,10 +2933,13 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2866,8 +3011,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,16 +3170,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3034,22 +3191,22 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3058,10 +3215,13 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3278,13 +3451,13 @@
         <v>-300</v>
       </c>
       <c r="J72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
       </c>
       <c r="L72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3454,7 +3639,7 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3469,13 +3654,16 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3588,11 +3782,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3611,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3917,14 +4133,14 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -3937,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3984,23 +4204,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4349,11 +4594,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4369,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4440,11 +4691,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4455,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
